--- a/biology/Zoologie/Calliste_septicolore/Calliste_septicolore.xlsx
+++ b/biology/Zoologie/Calliste_septicolore/Calliste_septicolore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tangara chilensis
-Le Calliste septicolore[1] (Tangara chilensis), également appelé Tangara de paradis ou Tangara septicolore, est une espèce d'oiseaux de la famille des Thraupidae.
+Le Calliste septicolore (Tangara chilensis), également appelé Tangara de paradis ou Tangara septicolore, est une espèce d'oiseaux de la famille des Thraupidae.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure 15 cm de longueur pour une envergure de 28 à 30 cm. La tête est vert jaunâtre. Le bec, le cou, les épaules, le haut du dos et la queue sont noirs, tout comme le centre du ventre. Les ailes présentent la même couleur mais sont bordées de pourpre. Les couvertures alaires et les côtés de la poitrine et du ventre sont bleu vif. Le centre du dos est orangé et le bas jaune. Les yeux sont marron et les pattes brun noir. Les couleurs peuvent changer avec la race.
 </t>
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau peuple l'Amazonie et le plateau des Guyanes.
 </t>
@@ -574,7 +590,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Grégaire, cet oiseau constitue des groupes mixtes avec d'autres espèces de Thraupidae.
 </t>
@@ -605,7 +623,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international, cette espèce est constituée des sous-espèces suivantes (ordre phylogénique) :
 Tangara chilensis paradisea (Swainson, 1837) ;
